--- a/Assets/06.Table/Title_Samcheon.xlsx
+++ b/Assets/06.Table/Title_Samcheon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD05E2F5-2C5E-4309-AE10-E1A41254C60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FCBDF8-5A23-4203-86E4-F0FC5FBD3781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Samcheon" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아드라전 클리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지옥 요괴전 어려움 
 모든 보상 획득 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,9 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>241,242,243,244</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,6 +297,121 @@
   </si>
   <si>
     <t>258,259,260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st8</t>
+  </si>
+  <si>
+    <t>st9</t>
+  </si>
+  <si>
+    <t>st10</t>
+  </si>
+  <si>
+    <t>st11</t>
+  </si>
+  <si>
+    <t>st12</t>
+  </si>
+  <si>
+    <t>st13</t>
+  </si>
+  <si>
+    <t>st14</t>
+  </si>
+  <si>
+    <t>아드라전 어려움 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설의 도적 어려움 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설의 닌자 어려움 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황제의 금고 어려움 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연 요괴전 어려움 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연의 문지기 어려움 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연의 감시자 어려움 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연의 주인 어려움 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설의 도적 어려움
+모든 보상 획득 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황제의 금고 어려움
+모든 보상 획득 필요</t>
+  </si>
+  <si>
+    <t>전설의 닌자 어려움
+모든 보상 획득 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연 요괴전 어려움
+모든 보상 획득 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연의 문지기 어려움
+모든 보상 획득 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연의 감시자 어려움
+모든 보상 획득 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연의 주인 어려움
+모든 보상 획득 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>265,266,267,268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>269,270,271</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>272,273,274,275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>281,282,283,284,285,286,287,288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>289,290,291</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>276,277,278,279</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -736,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -744,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -759,10 +867,10 @@
         <v>1E-4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -770,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -785,10 +893,10 @@
         <v>1E-4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -796,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -811,10 +919,10 @@
         <v>1.2000000000000002E-4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -822,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -837,10 +945,10 @@
         <v>1.2000000000000002E-4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -848,7 +956,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -863,10 +971,10 @@
         <v>1.2000000000000002E-4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -874,7 +982,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -889,10 +997,10 @@
         <v>1.2000000000000002E-4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -900,7 +1008,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -915,10 +1023,10 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -926,13 +1034,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>44</v>
@@ -941,10 +1049,192 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <v>52</v>
+      </c>
+      <c r="F10">
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>40</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>52</v>
+      </c>
+      <c r="F11">
+        <v>0.4</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12">
+        <v>52</v>
+      </c>
+      <c r="F12">
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>56</v>
+      </c>
+      <c r="F13">
+        <v>0.05</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14">
+        <v>56</v>
+      </c>
+      <c r="F14">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15">
+        <v>56</v>
+      </c>
+      <c r="F15">
+        <v>0.05</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16">
+        <v>56</v>
+      </c>
+      <c r="F16">
+        <v>0.05</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Samcheon.xlsx
+++ b/Assets/06.Table/Title_Samcheon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FCBDF8-5A23-4203-86E4-F0FC5FBD3781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2160C810-635F-44B0-9E26-52452B5F4F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Samcheon" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,6 +412,54 @@
   </si>
   <si>
     <t>276,277,278,279</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st15</t>
+  </si>
+  <si>
+    <t>st16</t>
+  </si>
+  <si>
+    <t>st17</t>
+  </si>
+  <si>
+    <t>방랑 신선 어려움 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4대 신선 어려움 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4대 천선 어려움 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방랑 신선 어려움
+모든 보상 획득 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4대 신선 어려움
+모든 보상 획득 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4대 천선 어려움
+모든 보상 획득 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>297</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>298,299,300,301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>302,303,304,305</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1235,6 +1283,84 @@
       </c>
       <c r="H16" s="3" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17">
+        <v>74</v>
+      </c>
+      <c r="F17">
+        <v>0.05</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18">
+        <v>74</v>
+      </c>
+      <c r="F18">
+        <v>0.05</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19">
+        <v>74</v>
+      </c>
+      <c r="F19">
+        <v>0.05</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Samcheon.xlsx
+++ b/Assets/06.Table/Title_Samcheon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2160C810-635F-44B0-9E26-52452B5F4F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FEDD94-E810-47AC-B920-4E3CD359C5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Samcheon" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,6 +460,85 @@
   </si>
   <si>
     <t>302,303,304,305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st18</t>
+  </si>
+  <si>
+    <t>st19</t>
+  </si>
+  <si>
+    <t>st20</t>
+  </si>
+  <si>
+    <t>st21</t>
+  </si>
+  <si>
+    <t>st22</t>
+  </si>
+  <si>
+    <t>삼천왕 어려움 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용자매 어려움 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용술사 어려움 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용무제 어려움 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용신 어려움 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천왕 어려움
+모든 보상 획득 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용자매 어려움
+모든 보상 획득 필요</t>
+  </si>
+  <si>
+    <t>용술사 어려움
+모든 보상 획득 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용무제 어려움
+모든 보상 획득 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용신 어려움
+모든 보상 획득 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>314,315</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1361,6 +1440,136 @@
       </c>
       <c r="H19" s="3" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20">
+        <v>99</v>
+      </c>
+      <c r="F20">
+        <v>0.15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21">
+        <v>99</v>
+      </c>
+      <c r="F21">
+        <v>0.15</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22">
+        <v>99</v>
+      </c>
+      <c r="F22">
+        <v>0.15</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23">
+        <v>99</v>
+      </c>
+      <c r="F23">
+        <v>0.15</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24">
+        <v>99</v>
+      </c>
+      <c r="F24">
+        <v>0.15</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Samcheon.xlsx
+++ b/Assets/06.Table/Title_Samcheon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FEDD94-E810-47AC-B920-4E3CD359C5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ECCAC0-0D76-4E2A-812E-C34B5EB1B4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Samcheon" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,6 +539,85 @@
   </si>
   <si>
     <t>314,315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st23</t>
+  </si>
+  <si>
+    <t>st24</t>
+  </si>
+  <si>
+    <t>st25</t>
+  </si>
+  <si>
+    <t>st26</t>
+  </si>
+  <si>
+    <t>st27</t>
+  </si>
+  <si>
+    <t>광해태자 어려움 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑해태자 어려움 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍둥이 태자 어려움 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁 장군 어려움 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용왕 어려움 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑해 태자 어려움
+모든 보상 획득 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광해 태자 어려움
+모든 보상 획득 필요</t>
+  </si>
+  <si>
+    <t>쌍둥 태자 어려움
+모든 보상 획득 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁 태자 어려움
+모든 보상 획득 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용왕 태자 어려움
+모든 보상 획득 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>346</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>347</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>348,349</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350,351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>352</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -932,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1570,6 +1649,136 @@
       </c>
       <c r="H24" s="3" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25">
+        <v>107</v>
+      </c>
+      <c r="F25">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26">
+        <v>107</v>
+      </c>
+      <c r="F26">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27">
+        <v>107</v>
+      </c>
+      <c r="F27">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28">
+        <v>107</v>
+      </c>
+      <c r="F28">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29">
+        <v>107</v>
+      </c>
+      <c r="F29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
